--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/69.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/69.xlsx
@@ -479,13 +479,13 @@
         <v>-6.433060498414174</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.647625848433261</v>
+        <v>-8.84854032784239</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.068786130728316</v>
+        <v>-3.024809085482958</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.447133864956273</v>
+        <v>-5.498743722758357</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-6.255597458544538</v>
       </c>
       <c r="E3" t="n">
-        <v>-8.893080342109942</v>
+        <v>-9.107545354960257</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.164189741535973</v>
+        <v>-3.106832362786371</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.376579444942212</v>
+        <v>-5.441857666911058</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-6.135443694962438</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.711545654260446</v>
+        <v>-9.917160270389754</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.047039815708208</v>
+        <v>-2.991698651596232</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.250212537913871</v>
+        <v>-5.305357317483222</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-6.075574600775628</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.47891170841969</v>
+        <v>-10.67604251230756</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.951701666414759</v>
+        <v>-2.895758256372064</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.457398230384187</v>
+        <v>-5.524875959230442</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-6.049987323700035</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.25875472718711</v>
+        <v>-11.45278265530149</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.800590307015557</v>
+        <v>-2.750355141011854</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.010544842093234</v>
+        <v>-5.079371078132188</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-6.032700810233086</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.9196410823346</v>
+        <v>-12.10670390533718</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.768042842151026</v>
+        <v>-2.720111921447467</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.150475374865602</v>
+        <v>-5.205332123772434</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-6.000536973705885</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.41709622110882</v>
+        <v>-12.60998511887597</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.648745778657218</v>
+        <v>-2.59559102911981</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.709513522853427</v>
+        <v>-4.763388349047129</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-5.935966136529503</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.39468538199767</v>
+        <v>-13.57308110051902</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.393576796271977</v>
+        <v>-2.351930180932446</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.625565677032279</v>
+        <v>-4.667015907829184</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-5.821231141407341</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.14040985955954</v>
+        <v>-14.31321516476748</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.369866635825611</v>
+        <v>-2.336455078973526</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.257108998157582</v>
+        <v>-4.267988701819056</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-5.654386350914802</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.83880566234858</v>
+        <v>-15.01269762869238</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.193369301216302</v>
+        <v>-2.156200253448642</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.042761816032843</v>
+        <v>-4.059153379190684</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-5.440328831729829</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.50144638607686</v>
+        <v>-15.67219619973865</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.178430983673893</v>
+        <v>-2.152599870167167</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.524136423563548</v>
+        <v>-3.544887723567684</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-5.187435774665404</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.47276433390451</v>
+        <v>-16.63912822611433</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.014109490707389</v>
+        <v>-1.981758410385484</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.884930921921956</v>
+        <v>-2.90816975946602</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-4.916394544856087</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.11399914248657</v>
+        <v>-17.26459990207495</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.731708518411357</v>
+        <v>-1.711677295063517</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.521580241155533</v>
+        <v>-2.521305302795857</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-4.649880850538382</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.02043163743064</v>
+        <v>-18.16549435291696</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.564834026390717</v>
+        <v>-1.54354594197007</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.925998292582572</v>
+        <v>-1.930292567914658</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-4.406156876357764</v>
       </c>
       <c r="E16" t="n">
-        <v>-18.93707612859125</v>
+        <v>-19.0756843387766</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.39828684194112</v>
+        <v>-1.390195798784933</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.572846515729853</v>
+        <v>-1.545247941339495</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-4.206050788805579</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.72779885102013</v>
+        <v>-19.85704606467365</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.15367025564631</v>
+        <v>-1.160164037855806</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.043302142690559</v>
+        <v>-1.012705430949445</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-4.065268532640725</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.71338740894527</v>
+        <v>-20.84080170020095</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.05681339922322</v>
+        <v>-1.063516658278184</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.6842850141647467</v>
+        <v>-0.6485430274068346</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-3.989449806645325</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.55482971258301</v>
+        <v>-21.67878763588847</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9062388242405288</v>
+        <v>-0.9184015735804923</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.3137990283495825</v>
+        <v>-0.2694161217161311</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-3.98312948395312</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.20460070261787</v>
+        <v>-22.33657111526247</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.650101011445</v>
+        <v>-0.6797419850786678</v>
       </c>
       <c r="G20" t="n">
-        <v>0.06022187923284784</v>
+        <v>0.08487468548381802</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-4.046417501775373</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.83401316173385</v>
+        <v>-22.95481584005446</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.3486769231199408</v>
+        <v>-0.384654571329004</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3773436386651366</v>
+        <v>0.412980887000315</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-4.170946943197264</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.4644206358658</v>
+        <v>-23.58493528352389</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.07864817700934057</v>
+        <v>-0.1257673749367127</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3418373133583756</v>
+        <v>0.3803810529244171</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-4.348942164588885</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.9736326625919</v>
+        <v>-24.09154194198448</v>
       </c>
       <c r="F23" t="n">
-        <v>0.03460024257158992</v>
+        <v>-0.008905479771465805</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6021908476689402</v>
+        <v>0.6638032248421031</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-4.571457819172622</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.36044475005069</v>
+        <v>-24.46976547877911</v>
       </c>
       <c r="F24" t="n">
-        <v>0.01727912591198633</v>
+        <v>-0.02715614993283194</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5331027655731517</v>
+        <v>0.5813348092420705</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-4.823271914135054</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.63115429590906</v>
+        <v>-24.73383722709672</v>
       </c>
       <c r="F25" t="n">
-        <v>0.305872757452154</v>
+        <v>0.2580203905656453</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5231918923219651</v>
+        <v>0.5705860286090134</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-5.090799149392872</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.64636755181115</v>
+        <v>-24.73954547113571</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3191352602308226</v>
+        <v>0.2787324136612559</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3637407360125833</v>
+        <v>0.4227215603145592</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-5.360314425155631</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.62357385256371</v>
+        <v>-24.698658209361</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1372438968507223</v>
+        <v>0.09652683501295423</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3390224682474045</v>
+        <v>0.3981211232749559</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-5.613412283671584</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.73676990293327</v>
+        <v>-24.79616968092618</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2533857153596742</v>
+        <v>0.2163214060147478</v>
       </c>
       <c r="G28" t="n">
-        <v>0.05165951317435898</v>
+        <v>0.1137824901583492</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-5.833678169839653</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.78234420912532</v>
+        <v>-24.83678200434121</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2004928118791009</v>
+        <v>0.1851617252514397</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.04335132854804709</v>
+        <v>0.007747929443209753</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-6.005485121917175</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.55519275482137</v>
+        <v>-24.59910433855252</v>
       </c>
       <c r="F30" t="n">
-        <v>0.07619448869975363</v>
+        <v>0.04516573096486286</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.2373792566624274</v>
+        <v>-0.1966229179161342</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-6.111576214474418</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.08443282154143</v>
+        <v>-24.13775777101577</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07485907380989758</v>
+        <v>0.05194754383687696</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.6985818088679117</v>
+        <v>-0.6591739773143162</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-6.140672193037902</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.16861632881372</v>
+        <v>-24.217398249202</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1385269425292114</v>
+        <v>0.1185611806955792</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.7541979113395639</v>
+        <v>-0.7294665512715435</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-6.084713451565877</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.74729293106414</v>
+        <v>-23.79202932987431</v>
       </c>
       <c r="F33" t="n">
-        <v>0.05410777380576176</v>
+        <v>0.03448241184601438</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.216906078371847</v>
+        <v>-1.192030702972567</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-5.938752460885083</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.18398350899603</v>
+        <v>-23.23184896818538</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.101376414742577</v>
+        <v>-0.1114836725363895</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.289437436115009</v>
+        <v>-1.278073317248391</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-5.707636471684046</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.84190782034741</v>
+        <v>-22.8787102836355</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.293414312825015</v>
+        <v>-0.3079467689793309</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.311170658832274</v>
+        <v>-1.304126999903426</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-5.40016272503564</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.11597890468223</v>
+        <v>-22.14931190771726</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.4246253719047937</v>
+        <v>-0.4307787542404049</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.514009706759136</v>
+        <v>-1.513970429850611</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-5.029559081487269</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.30496311284866</v>
+        <v>-21.35646823222801</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.360132688106451</v>
+        <v>-0.3617037644474582</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.641005044323879</v>
+        <v>-1.619913344445858</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-4.616081697506551</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.92840229851494</v>
+        <v>-20.97738060344584</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.4151727292530674</v>
+        <v>-0.4285530627573115</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.890596705698545</v>
+        <v>-1.865354745819697</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-4.177292698311528</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.27445486387357</v>
+        <v>-20.31792130930809</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.2678712299808074</v>
+        <v>-0.2712097672054476</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.042166295697208</v>
+        <v>-2.030448684653863</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-3.730748879945116</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.96903762318178</v>
+        <v>-19.99624342848688</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.5491200796267668</v>
+        <v>-0.5560197232243564</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.267524104511839</v>
+        <v>-2.247322681227055</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-3.29627670079882</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.43375882149781</v>
+        <v>-19.47937240459838</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2720738591930015</v>
+        <v>-0.2816181479646198</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.109578563029255</v>
+        <v>-2.113113484796521</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-2.886740243296635</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.87838333495179</v>
+        <v>-18.92301499533923</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.01289863213819226</v>
+        <v>-0.03353210141675254</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.081979988638897</v>
+        <v>-2.101526796781594</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-2.51294538062393</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.97540720795794</v>
+        <v>-18.03408690929456</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.02260002854391127</v>
+        <v>-0.04088997561380259</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.973418613475304</v>
+        <v>-2.00160634149354</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-2.185942385761455</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.64177605464224</v>
+        <v>-17.69469514272849</v>
       </c>
       <c r="F44" t="n">
-        <v>0.02525233834259751</v>
+        <v>0.01493560370331736</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.175629230865763</v>
+        <v>-2.213675462923819</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-1.908636837190835</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.1312024284206</v>
+        <v>-17.18558785442513</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.005239634975782507</v>
+        <v>-0.02017795251819195</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.216555769548999</v>
+        <v>-2.260257876434681</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-1.682187691431418</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.75424884500163</v>
+        <v>-16.81082068558072</v>
       </c>
       <c r="F46" t="n">
-        <v>0.01302412748842536</v>
+        <v>-0.004244619959811326</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.155113592312778</v>
+        <v>-2.222434213524934</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-1.507361932049822</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.08256134000971</v>
+        <v>-16.14702783920237</v>
       </c>
       <c r="F47" t="n">
-        <v>0.02018561714284952</v>
+        <v>0.01612700326191444</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.447490899374205</v>
+        <v>-2.520689964562295</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-1.378262061431494</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.43154658120488</v>
+        <v>-15.48423000783999</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.00992667939312044</v>
+        <v>-0.01055510992952329</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.381950831348524</v>
+        <v>-2.460845048272766</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-1.288563866590875</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.89493236463105</v>
+        <v>-14.96062954029084</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1421011412050027</v>
+        <v>0.1302526071332406</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.563082841163804</v>
+        <v>-2.666040710711138</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-1.232650697775755</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.19425850114756</v>
+        <v>-14.26427613674511</v>
       </c>
       <c r="F50" t="n">
-        <v>0.286181933978198</v>
+        <v>0.2766900144179467</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.475429873638448</v>
+        <v>-2.610005654548551</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-1.202092353216219</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.42729830837641</v>
+        <v>-13.48650170182669</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2837336733467953</v>
+        <v>0.2736264155529827</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.542829048667654</v>
+        <v>-2.697959745039266</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-1.190521653427007</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.83993832598805</v>
+        <v>-12.89293596789136</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3673411192940579</v>
+        <v>0.3529919553795262</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.554599028922366</v>
+        <v>-2.712557662707791</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-1.193850633526721</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.18830822894966</v>
+        <v>-12.22858015249081</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4179821466858544</v>
+        <v>0.4025855985439845</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.573831621796862</v>
+        <v>-2.74107269829707</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-1.20749633664288</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.81081786111417</v>
+        <v>-11.86928808560532</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3071427108278015</v>
+        <v>0.2878970256504642</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.680101843963152</v>
+        <v>-2.853273733650663</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-1.228181270493163</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.35651495250628</v>
+        <v>-11.40549325743717</v>
       </c>
       <c r="F55" t="n">
-        <v>0.05857224907479035</v>
+        <v>0.0429269471789277</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.146174732825759</v>
+        <v>-3.330344156900319</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-1.254097268458233</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.90882365683345</v>
+        <v>-10.96836745015762</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1501398151498225</v>
+        <v>0.1253953627789602</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.216860075868238</v>
+        <v>-3.401985238050244</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-1.282986237899805</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.15249441396978</v>
+        <v>-10.20813670104712</v>
       </c>
       <c r="F57" t="n">
-        <v>0.08559476214011295</v>
+        <v>0.06193697090511395</v>
       </c>
       <c r="G57" t="n">
-        <v>-3.583300540105308</v>
+        <v>-3.758580290550337</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-1.312962280940168</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.85205224835785</v>
+        <v>-9.900860353351804</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.09020868041858469</v>
+        <v>-0.1029867679921093</v>
       </c>
       <c r="G58" t="n">
-        <v>-3.615900374181206</v>
+        <v>-3.799218798571055</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-1.342922792339243</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.30637815821755</v>
+        <v>-9.36212518371762</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0002329476120589896</v>
+        <v>-0.02418419718776013</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.90135185303936</v>
+        <v>-4.074183342852986</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-1.370908202601397</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.939990063191846</v>
+        <v>-9.000096825538209</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.1359008173362087</v>
+        <v>-0.1619152230827184</v>
       </c>
       <c r="G60" t="n">
-        <v>-3.812559855166774</v>
+        <v>-3.986360175390687</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-1.394453388200625</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.410694443906545</v>
+        <v>-8.458088580193593</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.1607107312212796</v>
+        <v>-0.1766964329910271</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.215082706035641</v>
+        <v>-4.385151719949663</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-1.410855875756222</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.900225556107645</v>
+        <v>-7.960279949242643</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.1039294137967136</v>
+        <v>-0.1232405604882596</v>
       </c>
       <c r="G62" t="n">
-        <v>-4.170293938014097</v>
+        <v>-4.351517593949269</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-1.415383402656583</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.41907033437137</v>
+        <v>-7.484139079494748</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.1606190851013875</v>
+        <v>-0.1756097718551638</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.173344444576219</v>
+        <v>-4.350365471299197</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-1.402998637564967</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.062998973984946</v>
+        <v>-7.11119174074534</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.3188264726408053</v>
+        <v>-0.3302298684159487</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.420946075918942</v>
+        <v>-4.599079948383467</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-1.368493813073104</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.691622711576545</v>
+        <v>-6.748050536824384</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.2635769546487213</v>
+        <v>-0.2803874714974975</v>
       </c>
       <c r="G65" t="n">
-        <v>-4.70597860108616</v>
+        <v>-4.881219074622664</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-1.306443269100229</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.441651373419469</v>
+        <v>-6.503014996838639</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.3809625419276372</v>
+        <v>-0.3935180603528525</v>
       </c>
       <c r="G66" t="n">
-        <v>-4.700571480012528</v>
+        <v>-4.865927264903528</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-1.214209962612211</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.277081126698972</v>
+        <v>-6.335250228224761</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.4374820132953687</v>
+        <v>-0.4464895176504762</v>
       </c>
       <c r="G67" t="n">
-        <v>-4.817079883001048</v>
+        <v>-4.973074671360214</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-1.090657709410006</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.000650244498768</v>
+        <v>-6.053556240282183</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.4045810562541111</v>
+        <v>-0.4105249617442547</v>
       </c>
       <c r="G68" t="n">
-        <v>-4.813191469057055</v>
+        <v>-4.965428766500646</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.9350457156251533</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.866349401948342</v>
+        <v>-5.916060875838376</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.6629183759270498</v>
+        <v>-0.6638610217316541</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.914329508509389</v>
+        <v>-5.060701454279886</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.7506914172128883</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.629025228336373</v>
+        <v>-5.686146945634825</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.6068964120673039</v>
+        <v>-0.6175928234889941</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.781639019208495</v>
+        <v>-4.921072044472878</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.5401229545798583</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.507148981182746</v>
+        <v>-5.559583654063858</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.7060836983962206</v>
+        <v>-0.710561265968091</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.758295443241698</v>
+        <v>-4.89021348667493</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.3049650543485466</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.483910143638681</v>
+        <v>-5.545326136269218</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.7995627406861447</v>
+        <v>-0.7978738336195621</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.65819169571386</v>
+        <v>-4.777292374665042</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.05163664944524449</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.519049884465875</v>
+        <v>-5.585454044479109</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.8579544113602431</v>
+        <v>-0.8550217355236964</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.471783487853364</v>
+        <v>-4.591303120495482</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.2134082872665747</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.75506482779367</v>
+        <v>-5.822031956829099</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.7503094973955713</v>
+        <v>-0.7510688509603914</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.358129206884341</v>
+        <v>-4.491251742179011</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.4836386808816974</v>
       </c>
       <c r="E75" t="n">
-        <v>-5.955625815026072</v>
+        <v>-6.014226962545638</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.080510467366744</v>
+        <v>-1.06985333285358</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.194331406031505</v>
+        <v>-4.328881002335924</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.7490228578500628</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.483978788506769</v>
+        <v>-6.543286920379789</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.9926349306930792</v>
+        <v>-0.9811398887980436</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.025191945619246</v>
+        <v>-4.168591938644672</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>1.001940725415859</v>
       </c>
       <c r="E77" t="n">
-        <v>-6.950392077243261</v>
+        <v>-7.006584241039948</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.05165503190358</v>
+        <v>-1.033823315433149</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.94845795866389</v>
+        <v>-4.086621030552625</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>1.236542450018997</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.527657894140646</v>
+        <v>-7.587803933395536</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.143274967189979</v>
+        <v>-1.121803590529548</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.543840339340346</v>
+        <v>-3.697674897730627</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>1.445390837158201</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.952346013720557</v>
+        <v>-8.014547544521596</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.109104056773074</v>
+        <v>-1.07903103714563</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.33679866220129</v>
+        <v>-3.49919558665006</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>1.623831161467263</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.424637746432982</v>
+        <v>-8.484417201208304</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.294766003371592</v>
+        <v>-1.266643736867564</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.969127521497097</v>
+        <v>-3.13375013742896</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>1.767573536558488</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.365895766936037</v>
+        <v>-9.427167744235314</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.217207201337206</v>
+        <v>-1.188823088776344</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.946058883889975</v>
+        <v>-3.122700233830543</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>1.871003474823409</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.19276633751093</v>
+        <v>-10.24576397941424</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.310502951387346</v>
+        <v>-1.276803363872743</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.77178724076376</v>
+        <v>-2.948913005909472</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>1.928859784899616</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.02776722815054</v>
+        <v>-11.07573742576262</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.42180061784486</v>
+        <v>-1.375244388939682</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.396051241509063</v>
+        <v>-2.576947589873192</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>1.935160183121134</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.24295550101102</v>
+        <v>-12.27992816423606</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.495732851992087</v>
+        <v>-1.457922281385182</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.292713695179319</v>
+        <v>-2.469826368022189</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>1.885631145136384</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.13175266402728</v>
+        <v>-13.15738739299138</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.594278615481759</v>
+        <v>-1.549516032065897</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.948687253407283</v>
+        <v>-2.134218276977383</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>1.774144780154528</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.32333551486414</v>
+        <v>-14.33324638811532</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.806334644609196</v>
+        <v>-1.744761544344558</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.704319420866466</v>
+        <v>-1.876836695411891</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>1.593925967210756</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.42630966006819</v>
+        <v>-15.42607399861704</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.846816044995813</v>
+        <v>-1.786251052049988</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.28807583661947</v>
+        <v>-1.469391138674534</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>1.343913919220295</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.84377401183335</v>
+        <v>-16.83402024621626</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.871586681972359</v>
+        <v>-1.806609582968872</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.9819908884827558</v>
+        <v>-1.154481978422497</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>1.017768573102396</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.53650403084579</v>
+        <v>-18.49682126093252</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.097153967632457</v>
+        <v>-2.033551560427352</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.7754598111545271</v>
+        <v>-0.9508443000222895</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.609032373869868</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.15068023280789</v>
+        <v>-20.11027738623832</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.321097807740181</v>
+        <v>-2.261095783816551</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.4874029640308701</v>
+        <v>-0.6501926575648921</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1218298092899687</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.9775670790395</v>
+        <v>-21.93149526533946</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.53156966822377</v>
+        <v>-2.461460386506327</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.6519339338428416</v>
+        <v>-0.7909349131134473</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.4487934844560078</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.70042248689076</v>
+        <v>-23.64738556807892</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.633951476446068</v>
+        <v>-2.565190701921322</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.4728574155737125</v>
+        <v>-0.6166632699872316</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-1.105246180390882</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.78092033146945</v>
+        <v>-25.71731792426434</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.807673242852931</v>
+        <v>-2.75563133905707</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.4679608943109069</v>
+        <v>-0.6054955356632393</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-1.835194702879946</v>
       </c>
       <c r="E94" t="n">
-        <v>-28.04984259854626</v>
+        <v>-27.97845027115033</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.679918551723368</v>
+        <v>-2.623176511207327</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.6025497675238509</v>
+        <v>-0.747363729256183</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-2.635922049396278</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.32909469256519</v>
+        <v>-30.2585926417625</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.167580647971981</v>
+        <v>-3.120186511684932</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.9877776863387987</v>
+        <v>-1.108855303019082</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-3.507090302928012</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.51358469861571</v>
+        <v>-32.43548911216482</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.226810226027949</v>
+        <v>-3.179952874157411</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.214366171620552</v>
+        <v>-1.325284161295655</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-4.417633447693347</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.73791458221361</v>
+        <v>-34.66302660995893</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.601433379541099</v>
+        <v>-3.540920755806641</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.448770761698815</v>
+        <v>-1.550301570236401</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-5.377370705476365</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.2408093933749</v>
+        <v>-37.166602220868</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.846023781230225</v>
+        <v>-3.786087218820803</v>
       </c>
       <c r="G98" t="n">
-        <v>-1.879847925065488</v>
+        <v>-1.962944771201923</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-6.345320844534922</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.77373794725512</v>
+        <v>-39.68927950162314</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.740185605057712</v>
+        <v>-3.674148029524046</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.358463240050468</v>
+        <v>-2.435341242337083</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-7.339186765778123</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.3400387810789</v>
+        <v>-42.27036154535523</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.923215998785042</v>
+        <v>-3.865531312464397</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.721172397977647</v>
+        <v>-2.780441252942141</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-8.278061985641935</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.58353579603708</v>
+        <v>-44.53785675142229</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.161181695236255</v>
+        <v>-4.099674056485826</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.329846649392334</v>
+        <v>-3.376101755332152</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-9.262251374195749</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.88649805050238</v>
+        <v>-46.85175107876043</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.304202011479271</v>
+        <v>-4.23820371285413</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.605819300993077</v>
+        <v>-3.639545073113363</v>
       </c>
     </row>
   </sheetData>
